--- a/output/fit_clients/fit_round_4.xlsx
+++ b/output/fit_clients/fit_round_4.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D2" t="n">
-        <v>4631561151.493849</v>
+        <v>4698144304.333911</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001938892638358515</v>
+        <v>0.001351815838892293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005655522866528816</v>
+        <v>0.2648301476930476</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.767688263291176e-06</v>
+        <v>0.6081101222367765</v>
       </c>
       <c r="I2" t="n">
-        <v>4.59670478105545</v>
+        <v>7.52331006749768</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="D3" t="n">
-        <v>3215255551.869132</v>
+        <v>4050414143.423225</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004034955675476349</v>
+        <v>0.004891641142873002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008146755235294638</v>
+        <v>0.3589167424670672</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.546346987396253e-06</v>
+        <v>0.9513730104971199</v>
       </c>
       <c r="I3" t="n">
-        <v>4.604962456226349</v>
+        <v>8.368585037946721</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D4" t="n">
-        <v>1914563032.738912</v>
+        <v>4798921420.728885</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001761175115914675</v>
+        <v>0.002660625459979935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001368139860223241</v>
+        <v>0.3094849862689398</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.276253196270462e-06</v>
+        <v>0.7710275803632645</v>
       </c>
       <c r="I4" t="n">
-        <v>4.588763058185577</v>
+        <v>8.549527417145569</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +578,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="D5" t="n">
-        <v>4494078122.686357</v>
+        <v>6638084680.551367</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003808431903850573</v>
+        <v>0.004016583157079982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005828536862270313</v>
+        <v>0.2186085489767308</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.821765457721311e-06</v>
+        <v>0.4394765404445845</v>
       </c>
       <c r="I5" t="n">
-        <v>4.590269124507904</v>
+        <v>8.353506506346818</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D6" t="n">
-        <v>649032361.169804</v>
+        <v>4018586794.504043</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00150975763253524</v>
+        <v>0.004860331894281408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004035838822087175</v>
+        <v>0.3043993305489795</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.261440380793134e-05</v>
+        <v>0.7524732169566151</v>
       </c>
       <c r="I6" t="n">
-        <v>4.598706829547882</v>
+        <v>14.08334851431034</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" t="n">
-        <v>1439398421.84168</v>
+        <v>10594412287.63835</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001124963951718809</v>
+        <v>0.00476053254405719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001819781069822591</v>
+        <v>0.111011925727328</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5.687901392677471e-06</v>
+        <v>0.04692404396664108</v>
       </c>
       <c r="I7" t="n">
-        <v>4.599531054496765</v>
+        <v>13.54052137671379</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>2429573859.261202</v>
+        <v>5604676982.631189</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004399902958873724</v>
+        <v>0.002545926378417389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001078127339086748</v>
+        <v>0.2729370068499204</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3.369791067269977e-06</v>
+        <v>0.6376869593578538</v>
       </c>
       <c r="I8" t="n">
-        <v>4.592714214324952</v>
+        <v>8.805862454343938</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +702,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D9" t="n">
-        <v>128668985.2499559</v>
+        <v>9921911855.053343</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003685636824709343</v>
+        <v>0.004667730463380518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02035758652259129</v>
+        <v>0.1172162358414489</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.36296017436249e-05</v>
+        <v>0.06955967462742947</v>
       </c>
       <c r="I9" t="n">
-        <v>4.603258371353149</v>
+        <v>13.38973606071475</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +733,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D10" t="n">
-        <v>678282383.9485012</v>
+        <v>10811679465.76761</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003095855959157138</v>
+        <v>0.001195970560627643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003861798657885943</v>
+        <v>0.133977581798126</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.207042447505559e-05</v>
+        <v>0.1307112981720896</v>
       </c>
       <c r="I10" t="n">
-        <v>4.589770996570588</v>
+        <v>8.338427974746914</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="D11" t="n">
-        <v>1824765719.917668</v>
+        <v>7717036018.600167</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000812304082011366</v>
+        <v>0.002341589887010742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00143546646641202</v>
+        <v>0.1395055416879193</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>4.486689002783569e-06</v>
+        <v>0.1508793516818945</v>
       </c>
       <c r="I11" t="n">
-        <v>4.589791917800904</v>
+        <v>12.39455297512109</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D12" t="n">
-        <v>3712068996.921957</v>
+        <v>4300619639.358414</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001846419463877546</v>
+        <v>0.001210634708075548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007056415174857998</v>
+        <v>0.294791185064935</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.205550676724981e-06</v>
+        <v>0.7174191289900961</v>
       </c>
       <c r="I12" t="n">
-        <v>4.61182690858841</v>
+        <v>6.98533113243383</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D13" t="n">
-        <v>2641715195.622495</v>
+        <v>10677736525.55131</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001771264182260648</v>
+        <v>0.003799180704273011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009915489770965891</v>
+        <v>0.1160331561876621</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.099182039675484e-06</v>
+        <v>0.06524336006661149</v>
       </c>
       <c r="I13" t="n">
-        <v>4.601467204093933</v>
+        <v>14.26429089350919</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D14" t="n">
-        <v>4421137649.298481</v>
+        <v>7323980680.261011</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003452755306270073</v>
+        <v>0.002083211896376473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005924696781190762</v>
+        <v>0.1891945610581018</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.851821168587712e-06</v>
+        <v>0.3321633735428158</v>
       </c>
       <c r="I14" t="n">
-        <v>4.591911435127258</v>
+        <v>7.976543216349217</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D15" t="n">
-        <v>472000757.0176398</v>
+        <v>9130160798.519222</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003634701069172503</v>
+        <v>0.003835257473186202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005549546184100944</v>
+        <v>0.1609476352528564</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.73456422823175e-05</v>
+        <v>0.2291080832575988</v>
       </c>
       <c r="I15" t="n">
-        <v>4.611736285686493</v>
+        <v>8.459056227546146</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +919,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="D16" t="n">
-        <v>1590104679.135227</v>
+        <v>11357236048.57817</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001000698564808018</v>
+        <v>0.001409256946904231</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001647306642368064</v>
+        <v>0.1376898237662122</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5.148815921140234e-06</v>
+        <v>0.1442549374434131</v>
       </c>
       <c r="I16" t="n">
-        <v>4.609675526618958</v>
+        <v>9.001883365142689</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D17" t="n">
-        <v>2923716675.120843</v>
+        <v>5693611367.904822</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00443580115018765</v>
+        <v>0.002632533958853625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008959110238996518</v>
+        <v>0.2038055805039972</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.800256385264366e-06</v>
+        <v>0.3854698062761112</v>
       </c>
       <c r="I17" t="n">
-        <v>4.618150758743286</v>
+        <v>13.35957899751495</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D18" t="n">
-        <v>3159157060.400885</v>
+        <v>5223482761.53088</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00474565561140208</v>
+        <v>0.002530237705619667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008291420622397323</v>
+        <v>0.2336823525080918</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.59156355055425e-06</v>
+        <v>0.4944713816296831</v>
       </c>
       <c r="I18" t="n">
-        <v>4.61907856464386</v>
+        <v>14.05319145111053</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1012,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="D19" t="n">
-        <v>2651005561.576064</v>
+        <v>11246893764.89375</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002338189809745013</v>
+        <v>0.003725842327384357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0009880741247644657</v>
+        <v>0.1169152841208883</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.088321053292567e-06</v>
+        <v>0.06846169082777499</v>
       </c>
       <c r="I19" t="n">
-        <v>4.577728414535523</v>
+        <v>8.260992930051501</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D20" t="n">
-        <v>4952709980.820808</v>
+        <v>10082979604.56384</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001143123273030613</v>
+        <v>0.002579420329773804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005288801504920525</v>
+        <v>0.1519732470059166</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.653065961850282e-06</v>
+        <v>0.1963661773844693</v>
       </c>
       <c r="I20" t="n">
-        <v>4.602837431430816</v>
+        <v>8.820940985943841</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1074,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D21" t="n">
-        <v>3792716796.773875</v>
+        <v>8162969549.773578</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006432460950695578</v>
+        <v>0.004981914292164171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006906368548867348</v>
+        <v>0.1732789264219703</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.158652155408789e-06</v>
+        <v>0.2740972194130307</v>
       </c>
       <c r="I21" t="n">
-        <v>4.594483196735382</v>
+        <v>8.142407063948161</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1105,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="D22" t="n">
-        <v>128519285.7007198</v>
+        <v>10030048249.44744</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004340489530750181</v>
+        <v>0.003435409090929079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02038129908455699</v>
+        <v>0.1431125438583088</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.370371764496343e-05</v>
+        <v>0.1640390370328532</v>
       </c>
       <c r="I22" t="n">
-        <v>450</v>
+        <v>8.263035316747393</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1136,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D23" t="n">
-        <v>3328936270.761126</v>
+        <v>7184417186.175929</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001084603850167031</v>
+        <v>0.003950282358147591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0007868549551419032</v>
+        <v>0.1742755727505911</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.459391115450563e-06</v>
+        <v>0.2777333558696441</v>
       </c>
       <c r="I23" t="n">
-        <v>450</v>
+        <v>7.552060083170224</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1167,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="D24" t="n">
-        <v>381062351.8244779</v>
+        <v>6824149323.961784</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000841316538259083</v>
+        <v>0.002757449512240559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006873914432792153</v>
+        <v>0.2015166557348476</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>2.148508308157965e-05</v>
+        <v>0.3771189574739406</v>
       </c>
       <c r="I24" t="n">
-        <v>450</v>
+        <v>7.916229089949601</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="D25" t="n">
-        <v>4270985989.805146</v>
+        <v>10934497036.39285</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009375163623674614</v>
+        <v>0.003374091722585616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006132986636464016</v>
+        <v>0.1209741925574998</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.916924173423609e-06</v>
+        <v>0.08327009830050745</v>
       </c>
       <c r="I25" t="n">
-        <v>450</v>
+        <v>7.014220631450087</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1229,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
-        <v>1992078431.92715</v>
+        <v>9929738044.057383</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0009962347500754025</v>
+        <v>0.001619619687924144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001314903046997996</v>
+        <v>0.1102652471940349</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1098563977176e-06</v>
+        <v>0.04419988298966232</v>
       </c>
       <c r="I26" t="n">
-        <v>450</v>
+        <v>12.60565241751975</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1260,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="D27" t="n">
-        <v>4193882394.649139</v>
+        <v>11347326718.93664</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003494035630699183</v>
+        <v>0.001976772246546785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0006245740231872045</v>
+        <v>0.1290382348431415</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.95216639805084e-06</v>
+        <v>0.1126907235518663</v>
       </c>
       <c r="I27" t="n">
-        <v>450</v>
+        <v>8.428899164346337</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1291,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D28" t="n">
-        <v>2722322212.960444</v>
+        <v>8205811525.54016</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001329494710253971</v>
+        <v>0.004708951780596967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0009621895554940542</v>
+        <v>0.1404530918621279</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.007416333464713e-06</v>
+        <v>0.1543363671084987</v>
       </c>
       <c r="I28" t="n">
-        <v>450</v>
+        <v>13.26910780791552</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="D29" t="n">
-        <v>703231843.1428608</v>
+        <v>7367555561.366975</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002081391905835109</v>
+        <v>0.003648709149239378</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003724788667551668</v>
+        <v>0.1852313401144943</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.164218652503173e-05</v>
+        <v>0.3177040696304559</v>
       </c>
       <c r="I29" t="n">
-        <v>450</v>
+        <v>7.855914963549985</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1353,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>450</v>
+        <v>588</v>
       </c>
       <c r="D30" t="n">
-        <v>2651743904.544246</v>
+        <v>11223042289.59831</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004898620322817088</v>
+        <v>0.003692672530015469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0009877990086113511</v>
+        <v>0.1372356336416448</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>3.087461151199729e-06</v>
+        <v>0.1425978829570349</v>
       </c>
       <c r="I30" t="n">
-        <v>450</v>
+        <v>8.866176580743554</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1384,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="D31" t="n">
-        <v>4401565284.951936</v>
+        <v>5040726774.226718</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003326939142700229</v>
+        <v>0.004953000027454639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0005951042028060259</v>
+        <v>0.2920406611853764</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.860055629800898e-06</v>
+        <v>0.7073841949658175</v>
       </c>
       <c r="I31" t="n">
-        <v>450</v>
+        <v>8.474134759146049</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1415,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D32" t="n">
-        <v>1638027954.409359</v>
+        <v>8044356690.44863</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001537645572784908</v>
+        <v>0.002302539363220608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001599111903401246</v>
+        <v>0.1458770123151457</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>4.99817861238099e-06</v>
+        <v>0.1741248460609899</v>
       </c>
       <c r="I32" t="n">
-        <v>450</v>
+        <v>13.51036431351399</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="D33" t="n">
-        <v>335125820.7473602</v>
+        <v>7438189786.7962</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005005090786617887</v>
+        <v>0.003042729667140085</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007816139007607735</v>
+        <v>0.1475526225410725</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>2.44300969407638e-05</v>
+        <v>0.1802380953196292</v>
       </c>
       <c r="I33" t="n">
-        <v>450</v>
+        <v>12.63580948071955</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="D34" t="n">
-        <v>2512925982.691546</v>
+        <v>9146176971.411819</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00422366396888548</v>
+        <v>0.00168172816104123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0010423665551798</v>
+        <v>0.1537923915529565</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>3.258017285269158e-06</v>
+        <v>0.2030030932265163</v>
       </c>
       <c r="I34" t="n">
-        <v>450</v>
+        <v>8.097171469148449</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D35" t="n">
-        <v>463109970.3158004</v>
+        <v>9294066783.071331</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008675228470349849</v>
+        <v>0.002295289182122432</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005656086389618875</v>
+        <v>0.1335896210969233</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.767864397872522e-05</v>
+        <v>0.1292958732526713</v>
       </c>
       <c r="I35" t="n">
-        <v>450</v>
+        <v>7.220250552097026</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +1539,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="D36" t="n">
-        <v>4592921599.538335</v>
+        <v>5115304846.913068</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002421597028799308</v>
+        <v>0.0016731837889433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005703101921581445</v>
+        <v>0.302120820997135</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1.782559556216677e-06</v>
+        <v>0.7441603667405619</v>
       </c>
       <c r="I36" t="n">
-        <v>450</v>
+        <v>8.896333643943361</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D37" t="n">
-        <v>1470009023.493147</v>
+        <v>5324744987.494647</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003286525383607157</v>
+        <v>0.003464404985076307</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001781887021193657</v>
+        <v>0.2257948526781366</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>5.569459885869339e-06</v>
+        <v>0.4656948489122822</v>
       </c>
       <c r="I37" t="n">
-        <v>450</v>
+        <v>13.84209200871187</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +1601,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D38" t="n">
-        <v>3788004136.683301</v>
+        <v>4390789930.559896</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001367976052532208</v>
+        <v>0.001880144056847697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000691496076953465</v>
+        <v>0.2439949364335424</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.161337736916926e-06</v>
+        <v>0.5320955230090123</v>
       </c>
       <c r="I38" t="n">
-        <v>450</v>
+        <v>12.33423884872147</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +1632,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D39" t="n">
-        <v>1208119670.546403</v>
+        <v>9594903612.423191</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005897059007540051</v>
+        <v>0.003428804882655717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002168154417033301</v>
+        <v>0.1214841333570855</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>6.776775916998515e-06</v>
+        <v>0.0851305519828623</v>
       </c>
       <c r="I39" t="n">
-        <v>450</v>
+        <v>13.41989312391456</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="D40" t="n">
-        <v>4977344800.472629</v>
+        <v>9504279245.974968</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004677941756631887</v>
+        <v>0.003944419583593229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0005262625164628485</v>
+        <v>0.1466197955610521</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.644884294018293e-06</v>
+        <v>0.1768347955809359</v>
       </c>
       <c r="I40" t="n">
-        <v>450</v>
+        <v>8.021778811148929</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +1694,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D41" t="n">
-        <v>1741391679.735254</v>
+        <v>4377078042.7982</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001301468293710195</v>
+        <v>0.001532106934649001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001504193473807242</v>
+        <v>0.2926339666498502</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>4.701501898444667e-06</v>
+        <v>0.7095487939487554</v>
       </c>
       <c r="I41" t="n">
-        <v>450</v>
+        <v>6.1816073921262</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +1725,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D42" t="n">
-        <v>4012889470.161499</v>
+        <v>9062962215.910162</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007232069026177758</v>
+        <v>0.001144279356828981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0006527441185402455</v>
+        <v>0.1343949495741861</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>2.04021475026611e-06</v>
+        <v>0.132234011036991</v>
       </c>
       <c r="I42" t="n">
-        <v>450</v>
+        <v>14.02303438791072</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="D43" t="n">
-        <v>1659278619.147779</v>
+        <v>6048077061.929395</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001180145356046854</v>
+        <v>0.004111428154496694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001578631804069978</v>
+        <v>0.2109171091799974</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>4.934166085027987e-06</v>
+        <v>0.41141530764252</v>
       </c>
       <c r="I43" t="n">
-        <v>450</v>
+        <v>7.138710691825676</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +1787,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D44" t="n">
-        <v>3462762376.054428</v>
+        <v>6550895830.609565</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006504033577731836</v>
+        <v>0.001635809515497397</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007564452063224186</v>
+        <v>0.2299150053588704</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.364342510137738e-06</v>
+        <v>0.4807266981641252</v>
       </c>
       <c r="I44" t="n">
-        <v>450</v>
+        <v>8.670155669944801</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +1818,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="D45" t="n">
-        <v>4748089150.962017</v>
+        <v>7862823149.377653</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00101477585910925</v>
+        <v>0.001034802239271949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005516724553222178</v>
+        <v>0.1992153696250921</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1.724305510681541e-06</v>
+        <v>0.3687230099040939</v>
       </c>
       <c r="I45" t="n">
-        <v>450</v>
+        <v>9.016961896742593</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D46" t="n">
-        <v>3620875686.984382</v>
+        <v>5558463740.521794</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001103250198622601</v>
+        <v>0.002323942061119299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0007234134022926201</v>
+        <v>0.1932098418076906</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.261098418164599e-06</v>
+        <v>0.3468126109882823</v>
       </c>
       <c r="I46" t="n">
-        <v>450</v>
+        <v>12.36439591192128</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +1880,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D47" t="n">
-        <v>253949194.421731</v>
+        <v>6856167393.303229</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004984447528964988</v>
+        <v>0.004545676530028684</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01031462220608585</v>
+        <v>0.181473143613046</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>3.223934734998494e-05</v>
+        <v>0.3039927711310729</v>
       </c>
       <c r="I47" t="n">
-        <v>450</v>
+        <v>7.627976602900809</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +1911,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D48" t="n">
-        <v>1710334872.429317</v>
+        <v>8703589404.944954</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001695047642757514</v>
+        <v>0.004913119409870457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001531507099705851</v>
+        <v>0.1760587590597274</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>4.786873272707238e-06</v>
+        <v>0.2842390826870575</v>
       </c>
       <c r="I48" t="n">
-        <v>450</v>
+        <v>8.820940985943841</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +1942,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D49" t="n">
-        <v>2534992985.760207</v>
+        <v>9971290387.897205</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004970094567237064</v>
+        <v>0.003272627013291664</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001033292799906696</v>
+        <v>0.1155850000516384</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>3.229656387296012e-06</v>
+        <v>0.06360831981446312</v>
       </c>
       <c r="I49" t="n">
-        <v>450</v>
+        <v>13.26910780791552</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +1973,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D50" t="n">
-        <v>359280883.8736283</v>
+        <v>10604071755.11461</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004117087719275794</v>
+        <v>0.004131512628833012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007290646726758029</v>
+        <v>0.1306721929085082</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2.278762009250331e-05</v>
+        <v>0.1186520102384682</v>
       </c>
       <c r="I50" t="n">
-        <v>450</v>
+        <v>7.976543216349217</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2004,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D51" t="n">
-        <v>4219535299.831759</v>
+        <v>6603827081.237474</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003828359196453526</v>
+        <v>0.002903440489956149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0006207768898400826</v>
+        <v>0.1892007489944556</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>1.94029809124656e-06</v>
+        <v>0.3321859494359096</v>
       </c>
       <c r="I51" t="n">
-        <v>450</v>
+        <v>6.263377174249915</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2035,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="D52" t="n">
-        <v>954254552.2521319</v>
+        <v>3946164800.110917</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001412328568693233</v>
+        <v>0.0032647394106087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002744959396649447</v>
+        <v>0.3551229411302363</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>8.579635558340875e-06</v>
+        <v>0.9375318123169292</v>
       </c>
       <c r="I52" t="n">
-        <v>450</v>
+        <v>8.067014405948642</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2066,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D53" t="n">
-        <v>2291055280.461979</v>
+        <v>4425992212.618282</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004736402605423769</v>
+        <v>0.001614771459233107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001143311565782827</v>
+        <v>0.2692780268799782</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>3.573530659880082e-06</v>
+        <v>0.6243376396637381</v>
       </c>
       <c r="I53" t="n">
-        <v>450</v>
+        <v>13.72146375591264</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2097,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D54" t="n">
-        <v>3365275118.556035</v>
+        <v>8155370817.749475</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001346257052656834</v>
+        <v>0.004702064893980365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007783583533948697</v>
+        <v>0.1776157948388334</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>2.432834166534346e-06</v>
+        <v>0.2899197282662108</v>
       </c>
       <c r="I54" t="n">
-        <v>450</v>
+        <v>8.338427974746914</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2128,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D55" t="n">
-        <v>3439468185.650774</v>
+        <v>8275819313.301177</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00430650422421788</v>
+        <v>0.001483566800546472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007615683177207207</v>
+        <v>0.1794618845306284</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>2.38035528933435e-06</v>
+        <v>0.2966549500171435</v>
       </c>
       <c r="I55" t="n">
-        <v>450</v>
+        <v>8.549527417145569</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D56" t="n">
-        <v>3345305167.650477</v>
+        <v>4892042306.642259</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002130840779414419</v>
+        <v>0.001146718870240128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007830047988834715</v>
+        <v>0.3137672251762575</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>2.447357080418814e-06</v>
+        <v>0.7866507804490709</v>
       </c>
       <c r="I56" t="n">
-        <v>450</v>
+        <v>8.836019517543745</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D57" t="n">
-        <v>2596785918.423921</v>
+        <v>8412282692.707299</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004455317385926043</v>
+        <v>0.001892700453050512</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001008704638074208</v>
+        <v>0.1298441421787828</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>3.152803714054376e-06</v>
+        <v>0.1156309732268266</v>
       </c>
       <c r="I57" t="n">
-        <v>450</v>
+        <v>12.57549535431994</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +2221,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D58" t="n">
-        <v>1716606899.486934</v>
+        <v>3886793829.73501</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003302790666920774</v>
+        <v>0.003599858423189042</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001525911378302681</v>
+        <v>0.2931554128966196</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>4.769383305320543e-06</v>
+        <v>0.711451223781278</v>
       </c>
       <c r="I58" t="n">
-        <v>450</v>
+        <v>13.11832249191648</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +2252,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D59" t="n">
-        <v>742572680.1132398</v>
+        <v>10834283729.27259</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004950081361062611</v>
+        <v>0.002381176626755057</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00352745269271225</v>
+        <v>0.125719690755362</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1.102539388731959e-05</v>
+        <v>0.1005834405629721</v>
       </c>
       <c r="I59" t="n">
-        <v>450</v>
+        <v>8.046068853802151</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +2283,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D60" t="n">
-        <v>136991014.4672385</v>
+        <v>5005354622.955869</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002288326169720766</v>
+        <v>0.004383659442112248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01912088913412952</v>
+        <v>0.3066640938806332</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>5.976418468066026e-05</v>
+        <v>0.7607359158492339</v>
       </c>
       <c r="I60" t="n">
-        <v>450</v>
+        <v>8.836019517543745</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="D61" t="n">
-        <v>4979676526.003522</v>
+        <v>10781767433.16417</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004742895865197575</v>
+        <v>0.00241419510991461</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0005260160948852258</v>
+        <v>0.09815028626428421</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1.644114079590971e-06</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>450</v>
+        <v>12.18345353272243</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +2345,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D62" t="n">
-        <v>1054909517.324069</v>
+        <v>10418819976.4089</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003188844578732259</v>
+        <v>0.003758092146377222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002483047083170188</v>
+        <v>0.1445604447922452</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>7.761003340816333e-06</v>
+        <v>0.1693215181099034</v>
       </c>
       <c r="I62" t="n">
-        <v>450</v>
+        <v>8.670155669944801</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +2376,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D63" t="n">
-        <v>2775505419.79611</v>
+        <v>9753633254.550144</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00336570255081632</v>
+        <v>0.001541526426544644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0009437524356167253</v>
+        <v>0.1506595287775945</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2.949789335598731e-06</v>
+        <v>0.1915732447196489</v>
       </c>
       <c r="I63" t="n">
-        <v>450</v>
+        <v>8.459056227546146</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +2407,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="D64" t="n">
-        <v>2396206003.306677</v>
+        <v>4440202099.804226</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00331276669887613</v>
+        <v>0.001804699437831559</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001093140571547412</v>
+        <v>0.3079412939470226</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>3.416716374515824e-06</v>
+        <v>0.7653956166783278</v>
       </c>
       <c r="I64" t="n">
-        <v>450</v>
+        <v>7.870993495149889</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +2438,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D65" t="n">
-        <v>1820272257.570522</v>
+        <v>6207552561.807758</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003427462180662559</v>
+        <v>0.00233644233676065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001439010010236624</v>
+        <v>0.1945273564704769</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>4.497764691056854e-06</v>
+        <v>0.3516193944579107</v>
       </c>
       <c r="I65" t="n">
-        <v>450</v>
+        <v>13.90240613511149</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +2469,25 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D66" t="n">
-        <v>3590032980.804874</v>
+        <v>7634447845.930903</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00443694832660471</v>
+        <v>0.001461693853076115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0007296283945037019</v>
+        <v>0.1612576737499324</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>2.280523976238098e-06</v>
+        <v>0.230239218997327</v>
       </c>
       <c r="I66" t="n">
-        <v>450</v>
+        <v>14.17381970390976</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +2500,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D67" t="n">
-        <v>1500136043.622596</v>
+        <v>7707805243.94472</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001518861118453455</v>
+        <v>0.004617733709396809</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001746101636005345</v>
+        <v>0.1559847416934323</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>5.457609210188919e-06</v>
+        <v>0.2110016018674679</v>
       </c>
       <c r="I67" t="n">
-        <v>450</v>
+        <v>13.84209200871187</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +2531,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>4145381257.923578</v>
+        <v>7680215573.112544</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003089037554167409</v>
+        <v>0.004903775497223803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0006318815657771495</v>
+        <v>0.1521113475108547</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1.97500682779465e-06</v>
+        <v>0.1968700193856503</v>
       </c>
       <c r="I68" t="n">
-        <v>450</v>
+        <v>13.45005018711437</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="D69" t="n">
-        <v>3516472082.361291</v>
+        <v>6888388984.706605</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002974308754870507</v>
+        <v>0.001009454970858385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0007448914533230404</v>
+        <v>0.206862324872133</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>2.3282301398831e-06</v>
+        <v>0.3966219465252082</v>
       </c>
       <c r="I69" t="n">
-        <v>450</v>
+        <v>8.202721190347777</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +2593,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="D70" t="n">
-        <v>4332103328.278568</v>
+        <v>10236556838.80471</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001063109582620098</v>
+        <v>0.002152856045830613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0006046462426003254</v>
+        <v>0.1297341235839872</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1.889880196247383e-06</v>
+        <v>0.1152295844774242</v>
       </c>
       <c r="I70" t="n">
-        <v>450</v>
+        <v>8.719138261082398</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +2624,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D71" t="n">
-        <v>504297073.4791481</v>
+        <v>3942234460.016656</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004812645225515649</v>
+        <v>0.004135454195375603</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00519414079072245</v>
+        <v>0.2770727213407254</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1.62347884189131e-05</v>
+        <v>0.6527755838802271</v>
       </c>
       <c r="I71" t="n">
-        <v>450</v>
+        <v>12.57549535431994</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +2655,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D72" t="n">
-        <v>4630688955.057376</v>
+        <v>10682033240.95212</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002809482020246182</v>
+        <v>0.00148032754405016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005656588091798415</v>
+        <v>0.1145151959750846</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>1.768021209731544e-06</v>
+        <v>0.05970527668624111</v>
       </c>
       <c r="I72" t="n">
-        <v>450</v>
+        <v>14.08334851431034</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +2686,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D73" t="n">
-        <v>2660087432.532396</v>
+        <v>9390064371.11442</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002224968725751194</v>
+        <v>0.004150488471087899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009847007162115523</v>
+        <v>0.1419872598638817</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>3.077777139233687e-06</v>
+        <v>0.1599335825314128</v>
       </c>
       <c r="I73" t="n">
-        <v>450</v>
+        <v>7.39520649530789</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +2717,25 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D74" t="n">
-        <v>1464896044.314089</v>
+        <v>6143266192.237475</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003468514637626379</v>
+        <v>0.001253580176352478</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001788106405343241</v>
+        <v>0.1931519216112345</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>5.588899171370572e-06</v>
+        <v>0.3466012965712617</v>
       </c>
       <c r="I74" t="n">
-        <v>450</v>
+        <v>13.66114962951303</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +2748,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="D75" t="n">
-        <v>1176742228.621739</v>
+        <v>5395715292.034797</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000635704185960415</v>
+        <v>0.002257239628741936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002225967536720395</v>
+        <v>0.2757398119571512</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>6.957476403137381e-06</v>
+        <v>0.6479126347439137</v>
       </c>
       <c r="I75" t="n">
-        <v>450</v>
+        <v>8.564605948745474</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +2779,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D76" t="n">
-        <v>4319411996.400764</v>
+        <v>6847609069.238332</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002726813800930032</v>
+        <v>0.001551751745503338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0006064228191667427</v>
+        <v>0.1698416408180502</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1.895433057794244e-06</v>
+        <v>0.2615567232136389</v>
       </c>
       <c r="I76" t="n">
-        <v>450</v>
+        <v>13.38973606071475</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +2810,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D77" t="n">
-        <v>3601338091.852296</v>
+        <v>4370116241.970966</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00344608582593801</v>
+        <v>0.003583660996018748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0007273379874902982</v>
+        <v>0.3116811372014414</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>2.273365088030404e-06</v>
+        <v>0.779039955707029</v>
       </c>
       <c r="I77" t="n">
-        <v>450</v>
+        <v>8.705363326602511</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +2841,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D78" t="n">
-        <v>1115656505.398739</v>
+        <v>10212129479.51388</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004005852520261659</v>
+        <v>0.002291478011280351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002347846301549437</v>
+        <v>0.1226060071517622</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>7.338420247265017e-06</v>
+        <v>0.08922356480736993</v>
       </c>
       <c r="I78" t="n">
-        <v>450</v>
+        <v>7.120663571800267</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +2872,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D79" t="n">
-        <v>2736362818.375944</v>
+        <v>4653055332.817864</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001681140985233018</v>
+        <v>0.003928845664380482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009572524456221897</v>
+        <v>0.2392494114884784</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>2.991984919993246e-06</v>
+        <v>0.5147820831628079</v>
       </c>
       <c r="I79" t="n">
-        <v>450</v>
+        <v>12.8167518599184</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +2903,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D80" t="n">
-        <v>3802107466.613652</v>
+        <v>8276839905.561754</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004946010538108961</v>
+        <v>0.002232241306376718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0006889310791451564</v>
+        <v>0.146210171249877</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>2.15332058867419e-06</v>
+        <v>0.1753403337557064</v>
       </c>
       <c r="I80" t="n">
-        <v>450</v>
+        <v>13.9325631983113</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +2934,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D81" t="n">
-        <v>4206508177.990417</v>
+        <v>8720046451.812044</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004994294820225974</v>
+        <v>0.001917182933926802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0006226993718222998</v>
+        <v>0.1273641563880902</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>1.946306994254391e-06</v>
+        <v>0.1065830627630416</v>
       </c>
       <c r="I81" t="n">
-        <v>450</v>
+        <v>12.78659479671859</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D82" t="n">
-        <v>1499691726.662421</v>
+        <v>6059998330.21991</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0007745767983105118</v>
+        <v>0.003206823848763001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001746618957370311</v>
+        <v>0.1893222996908592</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>5.459226148050866e-06</v>
+        <v>0.3326294115807322</v>
       </c>
       <c r="I82" t="n">
-        <v>450</v>
+        <v>13.20879368151591</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +2996,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D83" t="n">
-        <v>870360888.1690898</v>
+        <v>9456347464.069197</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003172261218609759</v>
+        <v>0.001812576781077812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003009544702209915</v>
+        <v>0.1210481567380384</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>9.406622470632526e-06</v>
+        <v>0.08353994713817087</v>
       </c>
       <c r="I83" t="n">
-        <v>450</v>
+        <v>13.1786366183161</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +3027,25 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="D84" t="n">
-        <v>2323146945.48481</v>
+        <v>3701321932.449477</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002935398776652351</v>
+        <v>0.001655168646819171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001127518000999015</v>
+        <v>0.3722451505557622</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>3.524166348634692e-06</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>450</v>
+        <v>7.931307621549506</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="D85" t="n">
-        <v>3711973462.863582</v>
+        <v>5079215188.678133</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001731753187169573</v>
+        <v>0.002764320414065716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007056596783909349</v>
+        <v>0.2490867827022032</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>2.205607440387008e-06</v>
+        <v>0.5506724718395674</v>
       </c>
       <c r="I85" t="n">
-        <v>450</v>
+        <v>7.615633864484985</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +3089,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="D86" t="n">
-        <v>1853577278.109043</v>
+        <v>9146376908.784611</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003016779688830322</v>
+        <v>0.003747675497186098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001413153921843611</v>
+        <v>0.1472021624985612</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>4.416948990960498e-06</v>
+        <v>0.1789594867495008</v>
       </c>
       <c r="I86" t="n">
-        <v>450</v>
+        <v>6.473697080957195</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +3120,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D87" t="n">
-        <v>1389707911.595429</v>
+        <v>8336986135.507584</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003072457253250685</v>
+        <v>0.00213187991332115</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001884849311243293</v>
+        <v>0.1303884680064682</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>5.891278462113613e-06</v>
+        <v>0.1176168762793793</v>
       </c>
       <c r="I87" t="n">
-        <v>450</v>
+        <v>12.51518122792032</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +3151,25 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" t="n">
-        <v>2923311899.978363</v>
+        <v>6495892179.600356</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0009117920891983977</v>
+        <v>0.004376081163326431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0008960350758396283</v>
+        <v>0.1810538225516479</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>2.800644121577188e-06</v>
+        <v>0.3024629319548373</v>
       </c>
       <c r="I88" t="n">
-        <v>450</v>
+        <v>13.54052137671379</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +3182,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D89" t="n">
-        <v>1872636609.152395</v>
+        <v>5033232403.875897</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0005019296093609231</v>
+        <v>0.002511555927821913</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001398771116188744</v>
+        <v>0.2648932938151834</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>4.371994143549703e-06</v>
+        <v>0.6083405027741829</v>
       </c>
       <c r="I89" t="n">
-        <v>450</v>
+        <v>8.177961681663081</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +3213,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D90" t="n">
-        <v>483743772.0375717</v>
+        <v>6590749877.450187</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004930920503004112</v>
+        <v>0.00104923938025695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.005414829402282322</v>
+        <v>0.1812300363706266</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1.692457197686704e-05</v>
+        <v>0.3031058254998666</v>
       </c>
       <c r="I90" t="n">
-        <v>450</v>
+        <v>13.75162081911245</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +3244,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D91" t="n">
-        <v>1668980990.983274</v>
+        <v>7076436272.40052</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004410033783401334</v>
+        <v>0.001304259300510288</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00156945466374473</v>
+        <v>0.1780453524203926</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>4.905482047094862e-06</v>
+        <v>0.2914869140749254</v>
       </c>
       <c r="I91" t="n">
-        <v>450</v>
+        <v>7.295610004622171</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +3275,25 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="D92" t="n">
-        <v>4362899460.142323</v>
+        <v>11835193123.1731</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003740441218364305</v>
+        <v>0.004153207347415489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0006003782631091281</v>
+        <v>0.1215058423663855</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>1.876540214370186e-06</v>
+        <v>0.08520975452230484</v>
       </c>
       <c r="I92" t="n">
-        <v>450</v>
+        <v>8.278113848347298</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +3306,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D93" t="n">
-        <v>467494237.3542276</v>
+        <v>8816300000.671593</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003132384002795019</v>
+        <v>0.003862009272679614</v>
       </c>
       <c r="F93" t="n">
-        <v>0.005603042328017506</v>
+        <v>0.1429087701080979</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>1.751284964397862e-05</v>
+        <v>0.1632955946092322</v>
       </c>
       <c r="I93" t="n">
-        <v>450</v>
+        <v>7.214308406794594</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +3337,25 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D94" t="n">
-        <v>3088201717.775626</v>
+        <v>6437815172.479033</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003884378204244046</v>
+        <v>0.004689348671871648</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0008481926504097336</v>
+        <v>0.1847215286769517</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>2.65110800278555e-06</v>
+        <v>0.3158440879089432</v>
       </c>
       <c r="I94" t="n">
-        <v>450</v>
+        <v>13.69130669271283</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +3368,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="D95" t="n">
-        <v>2864211086.268296</v>
+        <v>7455874867.483561</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0006846881740966699</v>
+        <v>0.001191019939142208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0009145240769990639</v>
+        <v>0.2048189377023993</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>2.858433279398366e-06</v>
+        <v>0.3891669102004096</v>
       </c>
       <c r="I95" t="n">
-        <v>450</v>
+        <v>8.790783922744033</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +3399,25 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="D96" t="n">
-        <v>3929859575.691922</v>
+        <v>6252478665.093282</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003092550209794676</v>
+        <v>0.002045385215249732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0006665352666039752</v>
+        <v>0.2492670720655307</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>2.083320314764567e-06</v>
+        <v>0.551330234486064</v>
       </c>
       <c r="I96" t="n">
-        <v>450</v>
+        <v>8.971726301942882</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +3430,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="D97" t="n">
-        <v>356891730.9061045</v>
+        <v>7861691554.715256</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0006378078790579216</v>
+        <v>0.003263687175329887</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007339452761625182</v>
+        <v>0.1995772282695246</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>2.294016806560593e-05</v>
+        <v>0.3700432048131369</v>
       </c>
       <c r="I97" t="n">
-        <v>450</v>
+        <v>9.032040428342498</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +3461,25 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>1335580020.245311</v>
+        <v>4170002034.25859</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001147108423694674</v>
+        <v>0.001715347788404721</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001961237784553626</v>
+        <v>0.2562855152635465</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>6.130038009034666e-06</v>
+        <v>0.5769361254105737</v>
       </c>
       <c r="I98" t="n">
-        <v>450</v>
+        <v>12.30408178552167</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +3492,25 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="D99" t="n">
-        <v>2976830247.035522</v>
+        <v>6388806280.57982</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003834960458402864</v>
+        <v>0.004233064340437886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0008799258884877702</v>
+        <v>0.218528283482919</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>2.75029330152911e-06</v>
+        <v>0.4391837020726604</v>
       </c>
       <c r="I99" t="n">
-        <v>450</v>
+        <v>8.036857342748833</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +3523,25 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D100" t="n">
-        <v>2363047043.720602</v>
+        <v>8488525948.808698</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00169563756115441</v>
+        <v>0.001900736546156981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00110847983621849</v>
+        <v>0.1373181347420617</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>3.464660726906401e-06</v>
+        <v>0.1428988776532698</v>
       </c>
       <c r="I100" t="n">
-        <v>450</v>
+        <v>13.41989312391456</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +3554,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="D101" t="n">
-        <v>1002716269.802948</v>
+        <v>9515118827.047056</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002064102610723788</v>
+        <v>0.004566768039588344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002612294303865996</v>
+        <v>0.1786613641826244</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>8.164978005014288e-06</v>
+        <v>0.293734354076489</v>
       </c>
       <c r="I101" t="n">
-        <v>450</v>
+        <v>9.785967008337698</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_4.xlsx
+++ b/output/fit_clients/fit_round_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>4698144304.333911</v>
+        <v>6968505142.871852</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2648301476930476</v>
+        <v>0.1792994342951835</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6081101222367765</v>
+        <v>0.2818627801776855</v>
       </c>
       <c r="I2" t="n">
-        <v>7.52331006749768</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9534038296900501</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.64870326663211</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9004930670265142</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12.36115807389818</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>4050414143.423225</v>
+        <v>9497509138.695126</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3589167424670672</v>
+        <v>0.1657543432715547</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9513730104971199</v>
+        <v>0.2445020766233882</v>
       </c>
       <c r="I3" t="n">
-        <v>8.368585037946721</v>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.890202279377178</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7487174018989732</v>
+      </c>
+      <c r="N3" t="n">
+        <v>9.084145758602286</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>4798921420.728885</v>
+        <v>6704257169.755584</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3094849862689398</v>
+        <v>0.1953527388400805</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7710275803632645</v>
+        <v>0.3261417555734576</v>
       </c>
       <c r="I4" t="n">
-        <v>8.549527417145569</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.957178958367861</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.524572733156536</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9191986651169715</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12.85940056918289</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>6638084680.551367</v>
+        <v>12018692824.91703</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2186085489767308</v>
+        <v>0.08957457401424448</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4394765404445845</v>
+        <v>0.03437947419183531</v>
       </c>
       <c r="I5" t="n">
-        <v>8.353506506346818</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7771832441270694</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15.54366488254139</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>4018586794.504043</v>
+        <v>10611926756.63106</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3043993305489795</v>
+        <v>0.1268729506786972</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7524732169566151</v>
+        <v>0.137257601122563</v>
       </c>
       <c r="I6" t="n">
-        <v>14.08334851431034</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9541185910698283</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.600681368464593</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.9281671864437298</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.96266236041</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>10594412287.63835</v>
+        <v>5851321266.105744</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.111011925727328</v>
+        <v>0.273966614905576</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04692404396664108</v>
+        <v>0.5429782252445486</v>
       </c>
       <c r="I7" t="n">
-        <v>13.54052137671379</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.872852365359695</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7554542243994296</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.236232122628895</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>5604676982.631189</v>
+        <v>8365355608.421486</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2729370068499204</v>
+        <v>0.1440368415165753</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6376869593578538</v>
+        <v>0.1845998475728559</v>
       </c>
       <c r="I8" t="n">
-        <v>8.805862454343938</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.9634362008952725</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.504906357004348</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8910499382649539</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12.31609240829473</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>9921911855.053343</v>
+        <v>10359966130.11688</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1172162358414489</v>
+        <v>0.1286943888864778</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.06955967462742947</v>
+        <v>0.1422815771744514</v>
       </c>
       <c r="I9" t="n">
-        <v>13.38973606071475</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.9500929125708223</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.810121578318492</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.9230208187747487</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12.65029479717648</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>10811679465.76761</v>
+        <v>6053384617.548341</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.133977581798126</v>
+        <v>0.225877201993118</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1307112981720896</v>
+        <v>0.4103357574465572</v>
       </c>
       <c r="I10" t="n">
-        <v>8.338427974746914</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.483860519748316</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.6955598460350289</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.42733640095226</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>7717036018.600167</v>
+        <v>4298078501.326794</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1395055416879193</v>
+        <v>0.352861589087269</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1508793516818945</v>
+        <v>0.7605900328864668</v>
       </c>
       <c r="I11" t="n">
-        <v>12.39455297512109</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1639099209783007</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.559480473155124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.7348025318856752</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.136570164558382</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>4300619639.358414</v>
+        <v>13622640903.15052</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.294791185064935</v>
+        <v>0.09344910058559842</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7174191289900961</v>
+        <v>0.04506637458940992</v>
       </c>
       <c r="I12" t="n">
-        <v>6.98533113243383</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.9562705722720994</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.556334355632274</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.9084363460883027</v>
+      </c>
+      <c r="N12" t="n">
+        <v>12.61239256613378</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>10677736525.55131</v>
+        <v>8334879083.724151</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1160331561876621</v>
+        <v>0.1719048729570532</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06524336006661149</v>
+        <v>0.2614667552572164</v>
       </c>
       <c r="I13" t="n">
-        <v>14.26429089350919</v>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1720753763549043</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.567645928531727</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7133934608904826</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.700223289277925</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>7323980680.261011</v>
+        <v>8490549632.146585</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1891945610581018</v>
+        <v>0.1897315156018616</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3321633735428158</v>
+        <v>0.3106370347377491</v>
       </c>
       <c r="I14" t="n">
-        <v>7.976543216349217</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2040126255110894</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.599583177687912</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.7572674175474353</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.545765173260794</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>9130160798.519222</v>
+        <v>11392860839.81645</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1609476352528564</v>
+        <v>0.0862181381665876</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2291080832575988</v>
+        <v>0.02512159585904499</v>
       </c>
       <c r="I15" t="n">
-        <v>8.459056227546146</v>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7561017835423851</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15.1220356708477</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>11357236048.57817</v>
+        <v>8109960871.4486</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1376898237662122</v>
+        <v>0.1643990064975309</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1442549374434131</v>
+        <v>0.2407637233452737</v>
       </c>
       <c r="I16" t="n">
-        <v>9.001883365142689</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.828678777887517</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.57357555775034</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>5693611367.904822</v>
+        <v>7839769094.23481</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2038055805039972</v>
+        <v>0.1830954078807729</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3854698062761112</v>
+        <v>0.2923330120560648</v>
       </c>
       <c r="I17" t="n">
-        <v>13.35957899751495</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.805607270578224</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7140854482557634</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.476101694537043</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>5223482761.53088</v>
+        <v>9066881138.969896</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2336823525080918</v>
+        <v>0.1210476230114881</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4944713816296831</v>
+        <v>0.1211899099050151</v>
       </c>
       <c r="I18" t="n">
-        <v>14.05319145111053</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7816909592162765</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15.63381918432553</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>11246893764.89375</v>
+        <v>10466973978.47951</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1169152841208883</v>
+        <v>0.1251264217043801</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06846169082777499</v>
+        <v>0.1324402432218575</v>
       </c>
       <c r="I19" t="n">
-        <v>8.260992930051501</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.9516168256309389</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.896808187096497</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9170599336326639</v>
+      </c>
+      <c r="N19" t="n">
+        <v>12.44439048555678</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>10082979604.56384</v>
+        <v>6837988170.529342</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1519732470059166</v>
+        <v>0.2164313995713499</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1963661773844693</v>
+        <v>0.3842819034343161</v>
       </c>
       <c r="I20" t="n">
-        <v>8.820940985943841</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.9608564003116452</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.141462917734083</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.9657023040242131</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13.17258316275018</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>8162969549.773578</v>
+        <v>12507517929.49184</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1732789264219703</v>
+        <v>0.07895331716227419</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2740972194130307</v>
+        <v>0.005083426795159857</v>
       </c>
       <c r="I21" t="n">
-        <v>8.142407063948161</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7573092949724413</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15.14618589944883</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>10030048249.44744</v>
+        <v>4766196856.745652</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1431125438583088</v>
+        <v>0.3319442330127048</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1640390370328532</v>
+        <v>0.7028948030738205</v>
       </c>
       <c r="I22" t="n">
-        <v>8.263035316747393</v>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.161741325385484</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5.557311877562307</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.7505687348780288</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9.454062819998271</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7184417186.175929</v>
+        <v>3681845666.675907</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1742755727505911</v>
+        <v>0.3827514642329648</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2777333558696441</v>
+        <v>0.84303368443855</v>
       </c>
       <c r="I23" t="n">
-        <v>7.552060083170224</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.867475902344918</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7070938787664027</v>
+      </c>
+      <c r="N23" t="n">
+        <v>8.274401672983137</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>6824149323.961784</v>
+        <v>12673192660.9031</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2015166557348476</v>
+        <v>0.1176051646873481</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3771189574739406</v>
+        <v>0.1116947603543876</v>
       </c>
       <c r="I24" t="n">
-        <v>7.916229089949601</v>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2958346413341096</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5.691405193510932</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.7282691716854817</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.873978240198703</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>10934497036.39285</v>
+        <v>7199716994.913723</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1209741925574998</v>
+        <v>0.1793625042362481</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08327009830050745</v>
+        <v>0.2820367426388598</v>
       </c>
       <c r="I25" t="n">
-        <v>7.014220631450087</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9659687490163266</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.728402177780716</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9173791898715523</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12.61918161965033</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>9929738044.057383</v>
+        <v>5358578535.211913</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1102652471940349</v>
+        <v>0.2888936832459393</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04419988298966232</v>
+        <v>0.5841507632678219</v>
       </c>
       <c r="I26" t="n">
-        <v>12.60565241751975</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1696876071254212</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.565258159302244</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7424678361735196</v>
+      </c>
+      <c r="N26" t="n">
+        <v>9.284098564168149</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>11347326718.93664</v>
+        <v>13251842954.92733</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1290382348431415</v>
+        <v>0.1160277808324233</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1126907235518663</v>
+        <v>0.1073439464327699</v>
       </c>
       <c r="I27" t="n">
-        <v>8.428899164346337</v>
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1838243751710803</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.579394927347903</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.7399332904322161</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9.219270881296421</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>8205811525.54016</v>
+        <v>14516381312.30344</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1404530918621279</v>
+        <v>0.104296476334415</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1543363671084987</v>
+        <v>0.07498611370276431</v>
       </c>
       <c r="I28" t="n">
-        <v>13.26910780791552</v>
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1420629781834575</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5.53763353036028</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.7341552813976588</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9.145472097592897</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>7367555561.366975</v>
+        <v>8953676120.988779</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1852313401144943</v>
+        <v>0.1807953513312064</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3177040696304559</v>
+        <v>0.2859888885092708</v>
       </c>
       <c r="I29" t="n">
-        <v>7.855914963549985</v>
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2572236769242652</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.652794229101088</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.7590705367636599</v>
+      </c>
+      <c r="N29" t="n">
+        <v>9.52861650617211</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>11223042289.59831</v>
+        <v>11426453674.57145</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1372356336416448</v>
+        <v>0.1093470525138116</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1425978829570349</v>
+        <v>0.08891684913212877</v>
       </c>
       <c r="I30" t="n">
-        <v>8.866176580743554</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8126927695611054</v>
+      </c>
+      <c r="N30" t="n">
+        <v>16.25385539122211</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>5040726774.226718</v>
+        <v>4449337545.428774</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2920406611853764</v>
+        <v>0.2207679772484738</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7073841949658175</v>
+        <v>0.396243254801581</v>
       </c>
       <c r="I31" t="n">
-        <v>8.474134759146049</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7561017835423851</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15.1220356708477</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>8044356690.44863</v>
+        <v>5857865962.955506</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1458770123151457</v>
+        <v>0.1775216156491457</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1741248460609899</v>
+        <v>0.2769591176410474</v>
       </c>
       <c r="I32" t="n">
-        <v>13.51036431351399</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.7691446689211801</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15.3828933784236</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>7438189786.7962</v>
+        <v>8674349280.166925</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1475526225410725</v>
+        <v>0.1567222354198123</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1802380953196292</v>
+        <v>0.2195892943223513</v>
       </c>
       <c r="I33" t="n">
-        <v>12.63580948071955</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.593663484665178</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.693346865010453</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8.273273815543881</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>9146176971.411819</v>
+        <v>14403017468.86537</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1537923915529565</v>
+        <v>0.07711032513852056</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2030030932265163</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>8.097171469148449</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7844777660457701</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15.6895553209154</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>9294066783.071331</v>
+        <v>8967245088.946533</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1335896210969233</v>
+        <v>0.1784770321458917</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1292958732526713</v>
+        <v>0.2795943921064272</v>
       </c>
       <c r="I35" t="n">
-        <v>7.220250552097026</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4403274450095466</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.835897997186369</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.7548475643029767</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.261053288873164</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>5115304846.913068</v>
+        <v>11525814812.77497</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.302120820997135</v>
+        <v>0.1052227187144967</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7441603667405619</v>
+        <v>0.0775409187551107</v>
       </c>
       <c r="I36" t="n">
-        <v>8.896333643943361</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.9597913963324297</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.540313522256116</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8920405421070549</v>
+      </c>
+      <c r="N36" t="n">
+        <v>12.30049731988498</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>5324744987.494647</v>
+        <v>9572861943.658382</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2257948526781366</v>
+        <v>0.1034308679919822</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4656948489122822</v>
+        <v>0.07259855228886571</v>
       </c>
       <c r="I37" t="n">
-        <v>13.84209200871187</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.757911369729135</v>
+      </c>
+      <c r="N37" t="n">
+        <v>15.1582273945827</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>4390789930.559896</v>
+        <v>9204021882.783716</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2439949364335424</v>
+        <v>0.1368886999667737</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5320955230090123</v>
+        <v>0.1648835092374087</v>
       </c>
       <c r="I38" t="n">
-        <v>12.33423884872147</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.9599390069150273</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>5.58083380144735</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.9060508262869739</v>
+      </c>
+      <c r="N38" t="n">
+        <v>12.54018272429213</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>9594903612.423191</v>
+        <v>6106243317.156921</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1214841333570855</v>
+        <v>0.2457993224382069</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0851305519828623</v>
+        <v>0.4652858817996212</v>
       </c>
       <c r="I39" t="n">
-        <v>13.41989312391456</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>6.275176132865437</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7308988808263178</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8.342801483660921</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>9504279245.974968</v>
+        <v>6550678757.958507</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1466197955610521</v>
+        <v>0.2123285450855275</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1768347955809359</v>
+        <v>0.372965218304343</v>
       </c>
       <c r="I40" t="n">
-        <v>8.021778811148929</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5.796528429186012</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7021020905573814</v>
+      </c>
+      <c r="N40" t="n">
+        <v>8.245513381961615</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>4377078042.7982</v>
+        <v>6986668879.976972</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2926339666498502</v>
+        <v>0.1679608322877709</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7095487939487554</v>
+        <v>0.2505881178236177</v>
       </c>
       <c r="I41" t="n">
-        <v>6.1816073921262</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7975433283206831</v>
+      </c>
+      <c r="N41" t="n">
+        <v>15.95086656641366</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>9062962215.910162</v>
+        <v>7527060573.616267</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1343949495741861</v>
+        <v>0.1503344458215713</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.132234011036991</v>
+        <v>0.2019701943007429</v>
       </c>
       <c r="I42" t="n">
-        <v>14.02303438791072</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7888891921547132</v>
+      </c>
+      <c r="N42" t="n">
+        <v>15.77778384309426</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>6048077061.929395</v>
+        <v>3565376263.89565</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2109171091799974</v>
+        <v>0.2777068524369855</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.41141530764252</v>
+        <v>0.553294723331559</v>
       </c>
       <c r="I43" t="n">
-        <v>7.138710691825676</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.757911369729135</v>
+      </c>
+      <c r="N43" t="n">
+        <v>15.1582273945827</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>6550895830.609565</v>
+        <v>5151124777.283976</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2299150053588704</v>
+        <v>0.2995114225933157</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4807266981641252</v>
+        <v>0.6134371085188155</v>
       </c>
       <c r="I44" t="n">
-        <v>8.670155669944801</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1247518777827504</v>
+      </c>
+      <c r="L44" t="n">
+        <v>5.520322429959573</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7412030911432269</v>
+      </c>
+      <c r="N44" t="n">
+        <v>9.303739392904966</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>7862823149.377653</v>
+        <v>5087128429.303989</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1992153696250921</v>
+        <v>0.193604437884174</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3687230099040939</v>
+        <v>0.3213195101102581</v>
       </c>
       <c r="I45" t="n">
-        <v>9.016961896742593</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7567061012647949</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15.1341220252959</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>5558463740.521794</v>
+        <v>13264905574.74712</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1932098418076906</v>
+        <v>0.1172957961315651</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3468126109882823</v>
+        <v>0.1108414455349105</v>
       </c>
       <c r="I46" t="n">
-        <v>12.36439591192128</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.908194518337232</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.7443555804466311</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.978917090595388</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>6856167393.303229</v>
+        <v>6566777338.361301</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.181473143613046</v>
+        <v>0.1671328801706988</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3039927711310729</v>
+        <v>0.2483044215716604</v>
       </c>
       <c r="I47" t="n">
-        <v>7.627976602900809</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7816909592162765</v>
+      </c>
+      <c r="N47" t="n">
+        <v>15.63381918432553</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>8703589404.944954</v>
+        <v>4650885614.002619</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1760587590597274</v>
+        <v>0.3283470067297037</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2842390826870575</v>
+        <v>0.6929727653006903</v>
       </c>
       <c r="I48" t="n">
-        <v>8.820940985943841</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>5.631994368943588</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.737378323748714</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9.115572106030694</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>9971290387.897205</v>
+        <v>5642214563.87069</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1155850000516384</v>
+        <v>0.200091130392161</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.06360831981446312</v>
+        <v>0.3392114087631368</v>
       </c>
       <c r="I49" t="n">
-        <v>13.26910780791552</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7883409080031927</v>
+      </c>
+      <c r="N49" t="n">
+        <v>15.76681816006385</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>10604071755.11461</v>
+        <v>12587533130.14827</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1306721929085082</v>
+        <v>0.1084169690669108</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1186520102384682</v>
+        <v>0.08635144946963837</v>
       </c>
       <c r="I50" t="n">
-        <v>7.976543216349217</v>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.06182389313638753</v>
+      </c>
+      <c r="L50" t="n">
+        <v>5.45739444531321</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6948240121516847</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8.439085797720484</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>6603827081.237474</v>
+        <v>5354994087.356571</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1892007489944556</v>
+        <v>0.2514225857277497</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3321859494359096</v>
+        <v>0.4807962296003027</v>
       </c>
       <c r="I51" t="n">
-        <v>6.263377174249915</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.9561571761147051</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>5.502582783107118</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.928952042338561</v>
+      </c>
+      <c r="N51" t="n">
+        <v>13.0764580636641</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>3946164800.110917</v>
+        <v>5072232682.08078</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3551229411302363</v>
+        <v>0.221026713533988</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9375318123169292</v>
+        <v>0.3969569133251724</v>
       </c>
       <c r="I52" t="n">
-        <v>8.067014405948642</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7866906941655485</v>
+      </c>
+      <c r="N52" t="n">
+        <v>15.73381388331097</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>4425992212.618282</v>
+        <v>6574453634.252033</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2692780268799782</v>
+        <v>0.2103654534567794</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6243376396637381</v>
+        <v>0.3675505271617263</v>
       </c>
       <c r="I53" t="n">
-        <v>13.72146375591264</v>
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.07673591479621576</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.472306466973039</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.6999371740188015</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.52643701340299</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>8155370817.749475</v>
+        <v>10051478905.94305</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1776157948388334</v>
+        <v>0.1584432634145372</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2899197282662108</v>
+        <v>0.2243363142284856</v>
       </c>
       <c r="I54" t="n">
-        <v>8.338427974746914</v>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1669714153500969</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5.562541967526919</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.7530207243919432</v>
+      </c>
+      <c r="N54" t="n">
+        <v>9.497872520311944</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>8275819313.301177</v>
+        <v>7237427760.676883</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1794618845306284</v>
+        <v>0.1827710056309129</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2966549500171435</v>
+        <v>0.2914382305984708</v>
       </c>
       <c r="I55" t="n">
-        <v>8.549527417145569</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8267197171668028</v>
+      </c>
+      <c r="N55" t="n">
+        <v>16.53439434333606</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>4892042306.642259</v>
+        <v>7145669274.261102</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3137672251762575</v>
+        <v>0.1752205947328104</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.7866507804490709</v>
+        <v>0.2706123341327289</v>
       </c>
       <c r="I56" t="n">
-        <v>8.836019517543745</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8132035224928802</v>
+      </c>
+      <c r="N56" t="n">
+        <v>16.26407044985761</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>8412282692.707299</v>
+        <v>5957423783.198839</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1298441421787828</v>
+        <v>0.1653215678188942</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1156309732268266</v>
+        <v>0.2433083751293028</v>
       </c>
       <c r="I57" t="n">
-        <v>12.57549535431994</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.7567061012647949</v>
+      </c>
+      <c r="N57" t="n">
+        <v>15.1341220252959</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>3886793829.73501</v>
+        <v>9311129494.723797</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2931554128966196</v>
+        <v>0.1738546350276078</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.711451223781278</v>
+        <v>0.2668446801890113</v>
       </c>
       <c r="I58" t="n">
-        <v>13.11832249191648</v>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2010660388926516</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5.596636591069474</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.7590705367636599</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9.584774144203722</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>10834283729.27259</v>
+        <v>4745053683.432892</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.125719690755362</v>
+        <v>0.3328712961698863</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1005834405629721</v>
+        <v>0.7054518720319507</v>
       </c>
       <c r="I59" t="n">
-        <v>8.046068853802151</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5.804577865044855</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.7499528083179446</v>
+      </c>
+      <c r="N59" t="n">
+        <v>9.194478301314037</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>5005354622.955869</v>
+        <v>11032890375.17426</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3066640938806332</v>
+        <v>0.09211759434199471</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7607359158492339</v>
+        <v>0.04139375179483476</v>
       </c>
       <c r="I60" t="n">
-        <v>8.836019517543745</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7638716636405702</v>
+      </c>
+      <c r="N60" t="n">
+        <v>15.2774332728114</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>10781767433.16417</v>
+        <v>9669778550.480642</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09815028626428421</v>
+        <v>0.1037486396159645</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.07347504484405505</v>
       </c>
       <c r="I61" t="n">
-        <v>12.18345353272243</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7609051339717409</v>
+      </c>
+      <c r="N61" t="n">
+        <v>15.21810267943482</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>10418819976.4089</v>
+        <v>3873371607.159791</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1445604447922452</v>
+        <v>0.3935808733616065</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1693215181099034</v>
+        <v>0.8729038671798536</v>
       </c>
       <c r="I62" t="n">
-        <v>8.670155669944801</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>6.108299327053675</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.736736344212349</v>
+      </c>
+      <c r="N62" t="n">
+        <v>8.626427557193304</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>9753633254.550144</v>
+        <v>7721676942.891148</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1506595287775945</v>
+        <v>0.2021784194736684</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1915732447196489</v>
+        <v>0.3449686671285685</v>
       </c>
       <c r="I63" t="n">
-        <v>8.459056227546146</v>
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5.760545987972569</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.745607897327254</v>
+      </c>
+      <c r="N63" t="n">
+        <v>9.151611958572509</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>4440202099.804226</v>
+        <v>5756234635.618289</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3079412939470226</v>
+        <v>0.2166050758745826</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7653956166783278</v>
+        <v>0.3847609455365925</v>
       </c>
       <c r="I64" t="n">
-        <v>7.870993495149889</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.8121812665457434</v>
+      </c>
+      <c r="N64" t="n">
+        <v>16.24362533091487</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>6207552561.807758</v>
+        <v>10366667076.62919</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1945273564704769</v>
+        <v>0.09677424408291187</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3516193944579107</v>
+        <v>0.05423794089796512</v>
       </c>
       <c r="I65" t="n">
-        <v>13.90240613511149</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.7609051339717409</v>
+      </c>
+      <c r="N65" t="n">
+        <v>15.21810267943482</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>7634447845.930903</v>
+        <v>4344971713.622882</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1612576737499324</v>
+        <v>0.2803277973435656</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.230239218997327</v>
+        <v>0.5605239361523563</v>
       </c>
       <c r="I66" t="n">
-        <v>14.17381970390976</v>
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.8065044500795001</v>
+      </c>
+      <c r="N66" t="n">
+        <v>16.13008900159</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>7707805243.94472</v>
+        <v>12023606775.44933</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1559847416934323</v>
+        <v>0.08387376340842727</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2110016018674679</v>
+        <v>0.01865523175658059</v>
       </c>
       <c r="I67" t="n">
-        <v>13.84209200871187</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.7620949802586333</v>
+      </c>
+      <c r="N67" t="n">
+        <v>15.24189960517267</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>7680215573.112544</v>
+        <v>11030859720.09947</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1521113475108547</v>
+        <v>0.1218170753773199</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1968700193856503</v>
+        <v>0.1233122494071158</v>
       </c>
       <c r="I68" t="n">
-        <v>13.45005018711437</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.8306270912880181</v>
+      </c>
+      <c r="N68" t="n">
+        <v>16.61254182576036</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>6888388984.706605</v>
+        <v>14353309270.45974</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.206862324872133</v>
+        <v>0.08577208759332802</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.3966219465252082</v>
+        <v>0.02389127830645677</v>
       </c>
       <c r="I69" t="n">
-        <v>8.202721190347777</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.9577188712271048</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>5.476712194311999</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.8967366714307224</v>
+      </c>
+      <c r="N69" t="n">
+        <v>12.45802123430245</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>10236556838.80471</v>
+        <v>10451565424.55898</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1297341235839872</v>
+        <v>0.1010005800202455</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1152295844774242</v>
+        <v>0.06589521834262357</v>
       </c>
       <c r="I70" t="n">
-        <v>8.719138261082398</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7726136844071133</v>
+      </c>
+      <c r="N70" t="n">
+        <v>15.45227368814227</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>3942234460.016656</v>
+        <v>6750632244.943735</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2770727213407254</v>
+        <v>0.2223362813348618</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.6527755838802271</v>
+        <v>0.4005690244809668</v>
       </c>
       <c r="I71" t="n">
-        <v>12.57549535431994</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.9630127529238528</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>6.273677536547521</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.9717565935237907</v>
+      </c>
+      <c r="N71" t="n">
+        <v>13.16145433392829</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>10682033240.95212</v>
+        <v>10844499039.1309</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1145151959750846</v>
+        <v>0.1284997559566089</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.05970527668624111</v>
+        <v>0.1417447315244628</v>
       </c>
       <c r="I72" t="n">
-        <v>14.08334851431034</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5.714321162639846</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.70282027946829</v>
+      </c>
+      <c r="N72" t="n">
+        <v>8.342084426725954</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>9390064371.11442</v>
+        <v>4942628880.075066</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1419872598638817</v>
+        <v>0.3026065129084271</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1599335825314128</v>
+        <v>0.6219741313808202</v>
       </c>
       <c r="I73" t="n">
-        <v>7.39520649530789</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.3511960648522946</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5.746766617029118</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.729586790809698</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.844969199164844</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>6143266192.237475</v>
+        <v>12422014856.99956</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1931519216112345</v>
+        <v>0.08181630208140689</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3466012965712617</v>
+        <v>0.01298024569859496</v>
       </c>
       <c r="I74" t="n">
-        <v>13.66114962951303</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.7638716636405702</v>
+      </c>
+      <c r="N74" t="n">
+        <v>15.2774332728114</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>5395715292.034797</v>
+        <v>10333420718.45045</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2757398119571512</v>
+        <v>0.1003809356322759</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6479126347439137</v>
+        <v>0.0641860862114603</v>
       </c>
       <c r="I75" t="n">
-        <v>8.564605948745474</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7685629381460978</v>
+      </c>
+      <c r="N75" t="n">
+        <v>15.37125876292196</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>6847609069.238332</v>
+        <v>12412006953.49495</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1698416408180502</v>
+        <v>0.1272551792726196</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2615567232136389</v>
+        <v>0.138311881906841</v>
       </c>
       <c r="I76" t="n">
-        <v>13.38973606071475</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3689307977591891</v>
+      </c>
+      <c r="L76" t="n">
+        <v>5.764501349936012</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.7499528083179446</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9.234554816422881</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>4370116241.970966</v>
+        <v>12794437675.83582</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.3116811372014414</v>
+        <v>0.09397052379024992</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.779039955707029</v>
+        <v>0.04650458845902018</v>
       </c>
       <c r="I77" t="n">
-        <v>8.705363326602511</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.9588484369873139</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>5.533009732677633</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.8885103963879942</v>
+      </c>
+      <c r="N77" t="n">
+        <v>12.23719819508225</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>10212129479.51388</v>
+        <v>6925476097.179603</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1226060071517622</v>
+        <v>0.1732271692466846</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.08922356480736993</v>
+        <v>0.2651139747260031</v>
       </c>
       <c r="I78" t="n">
-        <v>7.120663571800267</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.9496466828495479</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>5.458857805073718</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.8841911963712911</v>
+      </c>
+      <c r="N78" t="n">
+        <v>12.2249661223521</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>4653055332.817864</v>
+        <v>4599022894.246103</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2392494114884784</v>
+        <v>0.3035720634804237</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5147820831628079</v>
+        <v>0.6246373581265185</v>
       </c>
       <c r="I79" t="n">
-        <v>12.8167518599184</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5.760743878113178</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.703536760031943</v>
+      </c>
+      <c r="N79" t="n">
+        <v>8.309991322525681</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>8276839905.561754</v>
+        <v>13085436777.97356</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.146210171249877</v>
+        <v>0.1124988951441002</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1753403337557064</v>
+        <v>0.09761040888411503</v>
       </c>
       <c r="I80" t="n">
-        <v>13.9325631983113</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5.917526438793768</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7236131326302018</v>
+      </c>
+      <c r="N80" t="n">
+        <v>8.554736213810267</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>8720046451.812044</v>
+        <v>11486073098.29844</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1273641563880902</v>
+        <v>0.08825504777173773</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1065830627630416</v>
+        <v>0.03073989519658073</v>
       </c>
       <c r="I81" t="n">
-        <v>12.78659479671859</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.7632805076628046</v>
+      </c>
+      <c r="N81" t="n">
+        <v>15.26561015325609</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>6059998330.21991</v>
+        <v>11665565356.62477</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1893222996908592</v>
+        <v>0.1113720081523683</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.3326294115807322</v>
+        <v>0.09450217647992924</v>
       </c>
       <c r="I82" t="n">
-        <v>13.20879368151591</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.8222717788867707</v>
+      </c>
+      <c r="N82" t="n">
+        <v>16.44543557773541</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>9456347464.069197</v>
+        <v>8381197029.651311</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1210481567380384</v>
+        <v>0.1775180221555892</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.08353994713817087</v>
+        <v>0.2769492058990552</v>
       </c>
       <c r="I83" t="n">
-        <v>13.1786366183161</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4348619127317448</v>
+      </c>
+      <c r="L83" t="n">
+        <v>5.830432464908568</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.7276082709545493</v>
+      </c>
+      <c r="N83" t="n">
+        <v>8.721732954182418</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>3701321932.449477</v>
+        <v>9529017741.971333</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3722451505557622</v>
+        <v>0.1663058032749717</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0.2460231393961501</v>
       </c>
       <c r="I84" t="n">
-        <v>7.931307621549506</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3758198018465676</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5.77139035402339</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7511834843370435</v>
+      </c>
+      <c r="N84" t="n">
+        <v>9.25227933271748</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>5079215188.678133</v>
+        <v>7670456301.977588</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2490867827022032</v>
+        <v>0.1639155677969044</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5506724718395674</v>
+        <v>0.2394302801111696</v>
       </c>
       <c r="I85" t="n">
-        <v>7.615633864484985</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.9595944322922033</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>5.485766543688673</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.9051572195625324</v>
+      </c>
+      <c r="N85" t="n">
+        <v>12.61737784756198</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>9146376908.784611</v>
+        <v>11448942610.60146</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1472021624985612</v>
+        <v>0.1347566113722488</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1789594867495008</v>
+        <v>0.1590026827599353</v>
       </c>
       <c r="I86" t="n">
-        <v>6.473697080957195</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5.654755752291801</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.7412030911432269</v>
+      </c>
+      <c r="N86" t="n">
+        <v>9.169306070572738</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>8336986135.507584</v>
+        <v>12212817158.66932</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1303884680064682</v>
+        <v>0.1274003892619915</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1176168762793793</v>
+        <v>0.1387124068908801</v>
       </c>
       <c r="I87" t="n">
-        <v>12.51518122792032</v>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2771773889371906</v>
+      </c>
+      <c r="L87" t="n">
+        <v>5.672747941114014</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.7443555804466311</v>
+      </c>
+      <c r="N87" t="n">
+        <v>9.214363667818606</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>6495892179.600356</v>
+        <v>6931557084.477361</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1810538225516479</v>
+        <v>0.1670289035911901</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.3024629319548373</v>
+        <v>0.2480176285071592</v>
       </c>
       <c r="I88" t="n">
-        <v>13.54052137671379</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7943237774289734</v>
+      </c>
+      <c r="N88" t="n">
+        <v>15.88647554857947</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>5033232403.875897</v>
+        <v>3443591080.493832</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2648932938151834</v>
+        <v>0.4396594672857854</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.6083405027741829</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>8.177961681663081</v>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.1749945301878775</v>
+      </c>
+      <c r="L89" t="n">
+        <v>5.5705650823647</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.7341552813976588</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.112540545588477</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>6590749877.450187</v>
+        <v>4275336860.547568</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1812300363706266</v>
+        <v>0.2640627222659147</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3031058254998666</v>
+        <v>0.5156608453688063</v>
       </c>
       <c r="I90" t="n">
-        <v>13.75162081911245</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7883409080031927</v>
+      </c>
+      <c r="N90" t="n">
+        <v>15.76681816006385</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>7076436272.40052</v>
+        <v>11381978129.31514</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1780453524203926</v>
+        <v>0.1044812287011094</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2914869140749254</v>
+        <v>0.07549570632129909</v>
       </c>
       <c r="I91" t="n">
-        <v>7.295610004622171</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.9609064881768536</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>5.43335827903319</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.8852923998283501</v>
+      </c>
+      <c r="N91" t="n">
+        <v>12.27248971753381</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>11835193123.1731</v>
+        <v>12462633543.73934</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1215058423663855</v>
+        <v>0.07965802785709863</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.08520975452230484</v>
+        <v>0.007027192792372442</v>
       </c>
       <c r="I92" t="n">
-        <v>8.278113848347298</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.7585123305625502</v>
+      </c>
+      <c r="N92" t="n">
+        <v>15.170246611251</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>8816300000.671593</v>
+        <v>4512307238.978073</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1429087701080979</v>
+        <v>0.2298776180486589</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.1632955946092322</v>
+        <v>0.4213698921071654</v>
       </c>
       <c r="I93" t="n">
-        <v>7.214308406794594</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7685629381460978</v>
+      </c>
+      <c r="N93" t="n">
+        <v>15.37125876292196</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>6437815172.479033</v>
+        <v>5331257896.681711</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1847215286769517</v>
+        <v>0.2515593328986667</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3158440879089432</v>
+        <v>0.4811734120426803</v>
       </c>
       <c r="I94" t="n">
-        <v>13.69130669271283</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.8301410126782254</v>
+      </c>
+      <c r="N94" t="n">
+        <v>16.60282025356451</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>7455874867.483561</v>
+        <v>4781115914.421187</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2048189377023993</v>
+        <v>0.2761222659375375</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3891669102004096</v>
+        <v>0.5489240427389559</v>
       </c>
       <c r="I95" t="n">
-        <v>8.790783922744033</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.9642024601779049</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>5.863326486062628</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.924809893195559</v>
+      </c>
+      <c r="N95" t="n">
+        <v>12.63287137784855</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>6252478665.093282</v>
+        <v>5197343009.055772</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2492670720655307</v>
+        <v>0.2913041177697944</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.551330234486064</v>
+        <v>0.590799336505587</v>
       </c>
       <c r="I96" t="n">
-        <v>8.971726301942882</v>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9605216290300945</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2259963492218017</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5.621566901398625</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.97402403937092</v>
+      </c>
+      <c r="N96" t="n">
+        <v>13.85891388601978</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>7861691554.715256</v>
+        <v>13394374021.86667</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1995772282695246</v>
+        <v>0.1134242031407956</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3700432048131369</v>
+        <v>0.1001626366765049</v>
       </c>
       <c r="I97" t="n">
-        <v>9.032040428342498</v>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.1253997615578458</v>
+      </c>
+      <c r="L97" t="n">
+        <v>5.520970313734669</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7354484547969901</v>
+      </c>
+      <c r="N97" t="n">
+        <v>9.187998782205133</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>4170002034.25859</v>
+        <v>8995670095.932079</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2562855152635465</v>
+        <v>0.1231705874252823</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0.5769361254105737</v>
+        <v>0.1270455696404666</v>
       </c>
       <c r="I98" t="n">
-        <v>12.30408178552167</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7839222522270851</v>
+      </c>
+      <c r="N98" t="n">
+        <v>15.6784450445417</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>6388806280.57982</v>
+        <v>7405333233.987152</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.218528283482919</v>
+        <v>0.1474998619895861</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4391837020726604</v>
+        <v>0.1941517126041738</v>
       </c>
       <c r="I99" t="n">
-        <v>8.036857342748833</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7805697175495513</v>
+      </c>
+      <c r="N99" t="n">
+        <v>15.61139435099103</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>8488525948.808698</v>
+        <v>5045856519.822883</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1373181347420617</v>
+        <v>0.2605967440481554</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1428988776532698</v>
+        <v>0.5061008221475918</v>
       </c>
       <c r="I100" t="n">
-        <v>13.41989312391456</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8252432815148927</v>
+      </c>
+      <c r="N100" t="n">
+        <v>16.50486563029785</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>9515118827.047056</v>
+        <v>10302201973.07916</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1786613641826244</v>
+        <v>0.1535702332505458</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.293734354076489</v>
+        <v>0.2108952945224949</v>
       </c>
       <c r="I101" t="n">
-        <v>9.785967008337698</v>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1970149540076206</v>
+      </c>
+      <c r="L101" t="n">
+        <v>5.592585506184443</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.7505687348780288</v>
+      </c>
+      <c r="N101" t="n">
+        <v>9.418789191376133</v>
       </c>
     </row>
   </sheetData>
